--- a/Document/KAMISHIBAI.xlsx
+++ b/Document/KAMISHIBAI.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="9360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="9360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="60">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -1038,6 +1039,73 @@
     <rPh sb="85" eb="87">
       <t>バアイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Overview</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>It is notified only once to the newly created Page and ViewModel at the Page navigation.
+It is assumed to be used for the implementation of the initialization process.
+If a parameter is specified, it can be received. Only OnInitialize events can receive parameters.
+Before the navigation process is executed (for example, before calling the INavigation#Pusyasync() method).
+Not be notified, if you came back in return.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Interface</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Be notified before the screen transitions.
+Notify parent to child with top down. 
+Notify Page ahead of ViewModel.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. Navigationpage
+2. NavigationStack ascending</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. MasterDetailPage
+2. MasterPage
+3. DetailPage.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MasterDetailPage  notification order</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NavigationPage  notification order</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Basic notification order</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TabbedPage  notification order</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CarouselPage  notification order</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. TabbedPage
+2. Tabs Ascending</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. CarouselPage
+2. Child Page Ascending</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1436,399 +1504,798 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H2:L40"/>
+  <dimension ref="B2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="73.625" customWidth="1"/>
-    <col min="11" max="11" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.625" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H2" s="3" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H3" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="K3" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="8:12" ht="168.75" x14ac:dyDescent="0.4">
-      <c r="H4" t="s">
+    <row r="4" spans="2:6" ht="168.75" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="s">
+      <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H5" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="K5" t="s">
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="L5" t="s">
+      <c r="F5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="8:12" ht="67.5" x14ac:dyDescent="0.4">
-      <c r="H6" t="s">
+    <row r="6" spans="2:6" ht="67.5" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K6" t="s">
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H7" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="I7" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="K7" t="s">
+      <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="L7" t="s">
+      <c r="F7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="8:12" ht="75" x14ac:dyDescent="0.4">
-      <c r="H8" t="s">
+    <row r="8" spans="2:6" ht="75" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K8" t="s">
+      <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H9" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="I9" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" t="s">
+      <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H10" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="I10" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="K10" t="s">
+      <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H12" s="3" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H13" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="I13" t="s">
+      <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="K13" t="s">
+      <c r="E13" t="s">
         <v>2</v>
       </c>
-      <c r="L13" t="s">
+      <c r="F13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="8:12" ht="131.25" x14ac:dyDescent="0.4">
-      <c r="H14" t="s">
+    <row r="14" spans="2:6" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K14" t="s">
+      <c r="E14" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H15" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="I15" t="s">
+      <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="K15" t="s">
+      <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="L15" t="s">
+      <c r="F15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="8:12" ht="81" x14ac:dyDescent="0.4">
-      <c r="H16" t="s">
+    <row r="16" spans="2:6" ht="81" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K16" t="s">
+      <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H17" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="I17" t="s">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="K17" t="s">
+      <c r="E17" t="s">
         <v>5</v>
       </c>
-      <c r="L17" t="s">
+      <c r="F17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="8:12" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="H18" t="s">
+    <row r="18" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K18" t="s">
+      <c r="E18" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="8:12" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="H19" t="s">
+    <row r="19" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K19" t="s">
+      <c r="E19" t="s">
         <v>6</v>
       </c>
-      <c r="L19" t="s">
+      <c r="F19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="8:12" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="H20" t="s">
+    <row r="20" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K20" t="s">
+      <c r="E20" t="s">
         <v>7</v>
       </c>
-      <c r="L20" t="s">
+      <c r="F20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H22" s="4" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H23" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="I23" t="s">
+      <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="8:12" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="H24" t="s">
+    <row r="24" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
         <v>0</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H25" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="I25" t="s">
+      <c r="C25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="8:12" ht="40.5" x14ac:dyDescent="0.4">
-      <c r="H26" t="s">
+    <row r="26" spans="2:6" ht="40.5" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H27" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="I27" t="s">
+      <c r="C27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="8:12" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="H28" t="s">
+    <row r="28" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="8:12" ht="75" x14ac:dyDescent="0.4">
-      <c r="H29" t="s">
+    <row r="29" spans="2:6" ht="75" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="8:12" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="H30" t="s">
+    <row r="30" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H32" s="4" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B32" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H33" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
         <v>2</v>
       </c>
-      <c r="I33" t="s">
+      <c r="C33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="8:9" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="H34" t="s">
+    <row r="34" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H35" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="I35" t="s">
+      <c r="C35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="40.5" x14ac:dyDescent="0.4">
-      <c r="H36" t="s">
+    <row r="36" spans="2:3" ht="40.5" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H37" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
         <v>5</v>
       </c>
-      <c r="I37" t="s">
+      <c r="C37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="8:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="H38" t="s">
+    <row r="38" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H39" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H40" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.625" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="150" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="67.5" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="75" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="81" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="40.5" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="75" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B32" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="40.5" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Document/KAMISHIBAI.xlsx
+++ b/Document/KAMISHIBAI.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="82">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -1042,10 +1042,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>explanation</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Overview</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1062,17 +1058,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Be notified before the screen transitions.
-Notify parent to child with top down. 
-Notify Page ahead of ViewModel.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. Navigationpage
-2. NavigationStack ascending</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1. MasterDetailPage
 2. MasterPage
 3. DetailPage.</t>
@@ -1106,6 +1091,142 @@
   <si>
     <t>1. CarouselPage
 2. Child Page Ascending</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Explanation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>It is notified after displaying the Page.
+(PushAsync, etc.) not only when forward, but also when returned in some way back processing is notified.
+OnUnload, designed to be Page deactivation, OnLoaded assumes activation process in reverse.
+Supposed to come back in a physical back button and swipe. Therefore, it does not correspond to parameters.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Be notified before the screen transitions.
+From parent to child to notify top-down.
+Notify Page ahead of ViewModel.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. NavigationPage
+2. Current Page</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CarouselPage  notification order</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. TabbedPage
+2. Current Tab Page</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. CarouselPage
+2. Current Page</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>It is notified after Page is not displayed.
+Expects the implementation of Page deactivation process.  
+It is notified to Page that may be redisplayed.
+Page that pops from the stack will be notified of onclosed.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>It is notified after OnLoaded is notified to the displayed Page.
+From child to parent to notify buttom-up.
+Notify Page after notifying View Model.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>After displaying a page, ago the original Page's OnUnload notified.
+From parent to child to notify top-down.
+Notify View Model after notifying page.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. DetailPage
+2. MasterPage
+3. MasterDetailPage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. Current Page
+2. NavigationPage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. Current Tab Page
+2. TabbedPage
+When there are multiple tabs, the hidden tab is not notified.
+Also notified when the tab is hidden from display.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CarouselPage  notification order</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. Current Page
+2. CarouselPage
+When there are multiple Pages, the hidden page is not notified.
+Also notified when the Page is hidden from display.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Notified when the Page is destroyed.
+If the page is pop from the stack, etc.
+It is intended to release resources and unsubscribe from events.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. NavigationPage
+2. NavigationStack Descending</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. CarouselPage
+2. All Child Pages Descending</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. TabbedPage
+2. All Tabs Descending</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>To notify the OnSleep of the Xamarin.Forms.Application</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Notify all Pages and View Models.
+Notify all pages on ModalStack in descending order, then notify MainPage.
+If the page on the modalstack has a nested structure, from child to parent to notify buttom-up.
+Notify Page after notifying View Model.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OnResume</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>To notify the OnResume of the Xamarin.Forms.Application</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. NavigationPage
+2. NavigationStack Ascending</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Notify all Pages and View Models.
+Notify MainPage, then notify all pages on ModalStack in ascending order.
+If the page on the modalstack has a nested structure, from parent to child to notify top-down.
+Notify Page after notifying View Model.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1911,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1934,10 +2055,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1945,27 +2063,27 @@
     </row>
     <row r="4" spans="2:6" ht="150" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E4" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1973,72 +2091,72 @@
     </row>
     <row r="6" spans="2:6" ht="67.5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="75" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
@@ -2046,15 +2164,12 @@
         <v>14</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
         <v>3</v>
@@ -2062,100 +2177,100 @@
     </row>
     <row r="14" spans="2:6" ht="131.25" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="81" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" ht="67.5" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
@@ -2167,24 +2282,21 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
       <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="75" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
@@ -2192,42 +2304,42 @@
     </row>
     <row r="26" spans="2:6" ht="40.5" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="75" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="75" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.4">
@@ -2236,24 +2348,21 @@
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
       <c r="C33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -2261,42 +2370,42 @@
     </row>
     <row r="36" spans="2:3" ht="40.5" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
